--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf2.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização do Ministério da Defesa são denominados Apêndice Estratégico de Mobilização Militar (AEMM) e Plano Setorial de Mobilização Militar (PSMM).</t>
+          <t>A crise é definida como um conflito posicionado entre a paz e a guerra, exigindo administração para permitir uma evolução favorável aos interesses nacionais.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização do Ministério da Defesa são denominados Plano de Mobilização Nacional (PMN) e Apêndice Tático de Logística (ATL).</t>
+          <t>A crise é definida como uma situação de guerra declarada, onde não há espaço para administração ou manobra política, apenas combate imediato.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Conforme o **item 1.1**, os planos do MD são denominados AEMM e PSMM.</t>
+          <t>Conforme o **item 2.1.4**, a crise é um conflito posicionado entre a paz e a guerra que exige administração (manobra ou gerenciamento).</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A finalidade das normas é orientar a elaboração dos Planos de Mobilização Militar das Forças Armadas e do Ministério da Defesa.</t>
+          <t>O emprego das Forças Armadas será sempre como respaldo à ação política do governo, visando ao controle das ações através de Regras de Engajamento.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A finalidade das normas é estabelecer regras exclusivamente para a desmobilização de empresas estatais, sem relação com os planos militares.</t>
+          <t>O emprego das Forças Armadas ocorre de forma independente da ação política do governo, não se sujeitando a Regras de Engajamento definidas politicamente.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>De acordo com o **item 1.1**, a finalidade é orientar a elaboração dos Planos de Mobilização Militar das FA e do MD.</t>
+          <t>Segundo o **item 2.1.7**, o emprego das FA será sempre como respaldo à ação política (interna ou externa) do governo.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os objetivos incluem fornecer subsídios para ações estratégicas envolvendo órgãos da administração pública e entidades privadas de interesse para o SISMOMIL.</t>
+          <t>A Segurança Nacional é a condição que permite ao País preservar sua soberania e integridade territorial, livre de pressões e ameaças.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>As normas proíbem explicitamente qualquer interação ou planejamento envolvendo entidades privadas e órgãos da administração pública civil.</t>
+          <t>A Segurança Nacional restringe-se exclusivamente à proteção das fronteiras contra invasões estrangeiras, ignorando pressões ou interesses nacionais.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Segundo o **item 1.2.2**, um dos objetivos é fornecer subsídios para ações envolvendo entidades privadas e administração pública.</t>
+          <t>De acordo com o **item 2.1.1**, a PND define Segurança Nacional como a condição que permite ao País preservar sua soberania, integridade e interesses, livre de pressões.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Mobilização Militar tem como meta aumentar o poder de permanência em ação das Forças Armadas para propiciar o poder dissuasório do Estado.</t>
+          <t>A situação de normalidade caracteriza-se pela plena vigência das garantias individuais e pela não utilização das medidas de defesa do Estado como sítio ou defesa.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Mobilização Militar visa substituir a diplomacia do Estado pelo uso imediato da força, reduzindo o poder de permanência das Forças Armadas.</t>
+          <t>A situação de normalidade é aquela em que o Estado decreta intervenção federal ou estado de sítio para manter a ordem pública.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.1.1**, a meta é aumentar o poder de permanência em ação das FA para propiciar o poder dissuasório.</t>
+          <t>Conforme o **item 2.2.1.1**, a normalidade caracteriza-se pela plena vigência das garantias individuais e não utilização de medidas de defesa do Estado.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização das Forças Singulares são elaborados pelos seus Órgãos de Direção Geral (EMA, EME e EMAER).</t>
+          <t>O Planejamento Estratégico de Emprego Conjunto (PEECFA) é elaborado pelo EMCFA, com assessoramento de representantes das Forças Armadas.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização das Forças Singulares são elaborados diretamente pelo Ministério da Defesa, sem participação dos Estados-Maiores das Forças.</t>
+          <t>O Planejamento Estratégico de Emprego Conjunto (PEECFA) é elaborado isoladamente por cada Força Singular, sem participação do EMCFA.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.1.6**, os planos são elaborados pelos Órgãos de Direção Geral das FS (EMA, EME e EMAER).</t>
+          <t>Segundo o **item 2.2.1.3**, o PEECFA será elaborado pelo EMCFA, com assessoramento de representantes das FA.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Após o processo de análise e descaracterização em ambiente segregado, as Listas de Necessidades tornam-se ostensivas para agilizar o trâmite.</t>
+          <t>A situação de não-normalidade caracteriza-se pela intervenção da União nos Estados, ou pela decretação do estado de defesa ou do estado de sítio.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>As Listas de Necessidades mantêm sua classificação de alto sigilo durante todo o processo logístico, sendo proibida sua descaracterização.</t>
+          <t>A situação de não-normalidade ocorre sempre que há atuação de forças oponentes, mesmo que estas não ameacem a estabilidade institucional do País.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.1.9**, após análise e descaracterização, as listas tornam-se ostensivas para agilidade no trâmite.</t>
+          <t>De acordo com o **item 2.2.1.2**, a não-normalidade caracteriza-se pela intervenção, estado de defesa ou sítio, acarretando grave comprometimento da ordem.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Carências logísticas são recursos extraídos das necessidades logísticas não passíveis de obtenção pelo escalão considerado e encaminhados ao escalão superior.</t>
+          <t>O conflito armado diferencia-se do conceito de guerra apenas na perspectiva jurídica, sendo um recurso de grupos organizados que empregam violência armada.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carências logísticas são os recursos que a Força já possui em estoque e que não precisam ser solicitados ao escalão superior.</t>
+          <t>O conflito armado é estritamente sinônimo de guerra declarada entre Estados soberanos, não englobando o uso de violência por grupos politicamente organizados.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Conforme a definição do **item 2.1.15**, carências são recursos não passíveis de obtenção pelo escalão considerado, encaminhados ao superior.</t>
+          <t>Conforme o **item 2.2.2.2**, o conflito armado diferencia-se da guerra apenas na perspectiva jurídica e envolve grupos politicamente organizados.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O Grupo de Trabalho para descaracterização das Listas de Necessidades é coordenado pela Subchefia de Integração Logística (SUBILOG).</t>
+          <t>Em conflitos repentinos, será ativado um Comando Operacional constituído por forças de pronto emprego para prover pronta resposta.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O Grupo de Trabalho para descaracterização das Listas é coordenado exclusivamente pelos Comandantes de Força, sem participação da SUBILOG.</t>
+          <t>Em conflitos repentinos, deve-se aguardar a mobilização total das reservas antes de ativar qualquer Comando Operacional.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.1.10, alínea 'a'**, o GT é coordenado pela SUBILOG.</t>
+          <t>Segundo o **item 2.2.2.5**, em situações repentinas, será ativado um Comando Operacional constituído por forças de pronto emprego.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>As carências não atendidas no âmbito do Ministério da Defesa serão consolidadas no Plano Setorial de Mobilização Militar para busca de solução pelo SINAMOB.</t>
+          <t>O Planejamento Estratégico em crise inicia-se após o recebimento da Diretriz Presidencial de Emprego de Defesa (DPED).</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>As carências não atendidas pelo Ministério da Defesa devem ser descartadas, pois o SINAMOB não possui competência para solucioná-las.</t>
+          <t>O Planejamento Estratégico em crise inicia-se independentemente de qualquer diretriz política ou presidencial.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.1.17**, as carências não atendidas no MD compõem o PSMM para busca de solução pelo SINAMOB.</t>
+          <t>De acordo com o **item 2.2.2.3**, o Planejamento Estratégico iniciar-se-á após o recebimento da DPED.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Os planejamentos da Mobilização Militar devem levar em conta as duas fases da mobilização: Preparo e Execução.</t>
+          <t>A concepção de emprego conjunto visa alcançar a interoperabilidade para aplicar adequadamente a expressão Militar do Poder Nacional.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O planejamento da Mobilização deve focar exclusivamente na fase de Execução, ignorando a fase de Preparo.</t>
+          <t>A concepção de emprego conjunto visa garantir a atuação isolada e independente de cada Força Armada para evitar interferências.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.2.1**, os planejamentos levam em conta as fases de Preparo e Execução.</t>
+          <t>Conforme o **item 2.3.2**, a concepção de emprego conjunto é a visualização de como a interoperabilidade poderá ser alcançada.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>As ações planejadas na fase do Preparo serão implementadas de modo acelerado e compulsório na fase da Execução, após a decretação da Mobilização Nacional.</t>
+          <t>A simultaneidade das ações em todos os níveis de planejamento é necessária para a evolução da consciência situacional.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>As ações planejadas na fase do Preparo são de implementação voluntária e gradual, independentemente da decretação de Mobilização Nacional.</t>
+          <t>A estratificação do planejamento em níveis impede qualquer simultaneidade de ações, exigindo uma sequência rígida e linear.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.2.3**, a implementação na fase de Execução é acelerada e compulsória após a decretação.</t>
+          <t>Segundo o **item 2.3.5**, a estratificação não exime a simultaneidade das ações, que se faz necessária para a evolução da consciência situacional.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>As carências de toda ordem serão agrupadas por função logística, em ordem alfabética (ex: Engenharia, Manutenção, RH, etc.).</t>
+          <t>O Nível Político é representado pelo Presidente da República (Comandante Supremo), a quem cabe emitir a DPED.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>As carências devem ser agrupadas aleatoriamente, sem seguir nenhuma ordem alfabética ou função logística específica.</t>
+          <t>O Nível Político é representado pelo Ministro da Defesa, que tem a competência exclusiva de emitir a DPED.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.2.7**, as carências serão agrupadas por função logística, em ordem alfabética.</t>
+          <t>De acordo com o **item 2.4.1**, o nível político é representado pelo Presidente (CS), a quem cabe emitir a DPED.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O horizonte temporal de até 3 (três) anos é o tempo considerado para a efetividade dos planejamentos, podendo ser ajustado conforme a situação.</t>
+          <t>No Nível Estratégico, cabe ao Chefe do EMCFA emitir a Diretriz de Planejamento Estratégico Militar (DPEM).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>O horizonte temporal dos planejamentos é fixo em 10 (dez) anos, não podendo ser alterado sob nenhuma circunstância.</t>
+          <t>No Nível Estratégico, cabe aos Comandantes das Forças Singulares a emissão da Diretriz de Planejamento Estratégico Militar (DPEM).</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.2.15**, o horizonte temporal considerado é de até 3 (três) anos.</t>
+          <t>Conforme o **item 2.5.2**, o Nível Estratégico é representado pelo CEMCFA, a quem cabe emitir a DPEM.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O encaminhamento de um Plano de Mobilização ao MD não interrompe o processo de planejamento, devendo haver continuidade na atualização dos dados.</t>
+          <t>O Comandante Operacional elabora o planejamento da campanha com base no PEECFA e nos objetivos operacionais estabelecidos.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Uma vez enviado o Plano de Mobilização ao MD, o processo de planejamento na Força Singular é encerrado definitivamente.</t>
+          <t>O Comandante Operacional elabora o planejamento da campanha ignorando o PEECFA, baseando-se apenas em sua própria avaliação tática.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.2.12**, o encaminhamento não interrompe o processo, devendo haver continuidade e atualização.</t>
+          <t>Segundo o **item 2.6.1**, o Comandante Operacional elabora o planejamento militar da operação/campanha com base no PEECFA correspondente.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização devem conter a previsão de atendimento das carências por obtenções, esgotadas as capacidades de transferências internas.</t>
+          <t>No Nível Operacional, a inteligência é intensificada pela integração dos sistemas SIOP, SINDE e SISBIN.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Os Planos de Mobilização devem priorizar a obtenção externa antes mesmo de verificar as capacidades logísticas de transferências internas.</t>
+          <t>No Nível Operacional, a inteligência é restrita aos meios orgânicos da força, vedada a integração com o SISBIN.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.2.10, alínea 'a'**, prevê-se o atendimento por obtenções após esgotadas as capacidades internas.</t>
+          <t>De acordo com o **item 2.6.2**, no Nível Operacional, a atividade de inteligência é intensificada pela integração do SIOP, SINDE e SISBIN.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Entende-se por interoperabilidade a capacidade de intercambiar serviços ou informações sem comprometer funcionalidades, otimizando recursos.</t>
+          <t>O planejamento tático das Forças Componentes pode ocorrer de maneira paralela e simultânea ao planejamento do nível operacional.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Interoperabilidade é a capacidade de operar sistemas isolados que não trocam informações entre si, visando a redundância total.</t>
+          <t>O planejamento tático deve obrigatoriamente aguardar a finalização do planejamento operacional, sendo proibida a simultaneidade.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.3.4**, define-se interoperabilidade como a capacidade de intercambiar serviços/informações sem comprometer funcionalidades.</t>
+          <t>Conforme o **item 2.7.3**, o planejamento tático pode ocorrer de maneira paralela e simultânea ao planejamento do nível acima.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No planejamento, deve-se priorizar ações relativas à nacionalização, padronização e interoperabilidade logística entre as Forças Singulares.</t>
+          <t>Cabe ao Comandante Supremo decidir sobre o emprego das Forças Armadas e designar os Comandantes Operacionais.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No planejamento, deve-se evitar a padronização e a nacionalização, priorizando a aquisição de sistemas incompatíveis entre as Forças.</t>
+          <t>Cabe ao Chefe do EMCFA decidir, em última instância, sobre o emprego das Forças Armadas e a guerra.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.3.3**, é desejável priorizar nacionalização, padronização e interoperabilidade.</t>
+          <t>Segundo o **item 2.8.1**, compete ao CS decidir sobre o emprego das FA e designar os Comandantes Operacionais.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,32 +1056,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ao elaborar as Listas de Carências, deve-se evitar transferir ações tipicamente da Logística para a esfera da Mobilização.</t>
+          <t>No Nível Tático, são detalhados os planos e ordens para execução das batalhas e engajamentos da campanha.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Todas as ações de rotina da Logística devem ser transferidas para a esfera da Mobilização para garantir recursos extras.</t>
+          <t>No Nível Tático, são definidas as diretrizes políticas e estratégicas para a condução da guerra nacional.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.3.5**, deve-se evitar transferir ações tipicamente da Logística para a esfera da Mobilização.</t>
+          <t>De acordo com o **item 2.7.1**, no nível tático são detalhados os planos para batalhas e engajamentos da campanha.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,32 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A Lista de Necessidades Final (LNF) resulta da consolidação das listas das fases de planejamento (LNI, LNC, LNS) pelos Comandos Logísticos dos Comandos Operacionais.</t>
+          <t>Compete ao Ministro da Defesa adjudicar meios aos Comandos Operacionais, considerando as disponibilidades das FA.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A Lista de Necessidades Final (LNF) é criada diretamente pelo Presidente da República, sem consolidar as listas dos planejamentos tático e operacional.</t>
+          <t>Compete aos Comandantes de Força adjudicar meios diretamente entre si, sem interferência do Ministro da Defesa.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.4.1, alínea 'd'**, os C Log dos C Op consolidam LNI, LNC e LNS na LNF.</t>
+          <t>Conforme o **item 2.8.2, alínea 'f'**, cabe ao Min Def adjudicar meios aos Comandos Operacionais.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>As Forças Singulares têm 30 dias após o Planejamento Tático para encaminhar seus Planos de Deslocamento contendo as LNDE ao EMCFA.</t>
+          <t>Os Comandantes das Forças Singulares devem fornecer os meios adjudicados e prestar o apoio logístico necessário.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>As Forças Singulares devem encaminhar as LNDE ao EMCFA antes mesmo do início do Planejamento Tático.</t>
+          <t>Os Comandantes das Forças Singulares comandam operacionalmente as forças no teatro de operações durante o emprego conjunto.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.4.1, alínea 'e'**, o prazo é de 30 dias após o Planejamento Tático.</t>
+          <t>Segundo o **item 2.8.4**, cabe aos Comandantes de Força fornecer os meios adjudicados e prestar apoio logístico.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,32 +1158,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Na descaracterização das Listas de Necessidades do Planejamento, são excluídas informações que identifiquem a operação militar ou Hipótese de Emprego.</t>
+          <t>O Conselho Militar de Defesa (C Mi D) assessora o Comandante Supremo no emprego de meios militares.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A descaracterização das listas mantém explicitamente o nome da operação militar e a Hipótese de Emprego para facilitar a identificação pública.</t>
+          <t>O Conselho Militar de Defesa (C Mi D) tem poder decisório sobre a declaração de guerra, substituindo o Presidente.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.4.1, alínea 'g'**, excluem-se informações que identifiquem a operação ou a HE.</t>
+          <t>De acordo com o **item 2.8.3**, o C Mi D assessora o CS no que concerne ao emprego de meios militares.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,32 +1192,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O Apêndice Estratégico de Mobilização Militar (AEMM) terá classificação sigilosa e comporá o Plano Estratégico de Emprego Conjunto das FA (PEECFA).</t>
+          <t>O CEMCFA coordena o deslocamento e a concentração estratégica dos meios adjudicados por meio do CCLM.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O Apêndice Estratégico de Mobilização Militar (AEMM) é um documento ostensivo, publicado abertamente para o SINAMOB.</t>
+          <t>O CEMCFA é responsável pela execução tática das manobras de combate no campo de batalha.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.4.1, alínea 'm', subitem 4**, o AEMM terá classificação sigilosa e comporá o PEECFA.</t>
+          <t>Conforme o **item 2.8.5, alínea 'i'**, cabe ao CEMCFA coordenar o deslocamento e a concentração estratégica dos meios.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,32 +1226,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O custo da operação é levantado somando-se o custo da Lista de Carências Final (LCFFS) ao das Listas de Necessidades Atendidas (LNAFS).</t>
+          <t>Os Comandantes dos Comandos Operacionais devem manter o Ministro da Defesa atualizado sobre as operações via EMCFA.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>O custo da operação é calculado apenas com base nas carências não atendidas, ignorando os custos das necessidades já atendidas pelas Forças.</t>
+          <t>Os Comandantes dos Comandos Operacionais reportam-se exclusivamente aos Comandantes de suas Forças Singulares de origem.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.4.1, alínea 'm', subitem 2**, o custo é a soma da LCFFS e das LNAFS.</t>
+          <t>Segundo o **item 2.8.6, alínea 'e'**, os Cmt Op devem manter o Min Def atualizado acerca do andamento das operações, por intermédio do EMCFA.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,32 +1260,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Os Órgãos de Direção Setorial (ODS) elaboram as Listas de Necessidades Atendidas (LNA) e as decorrentes Listas de Carências (LC) após análise.</t>
+          <t>Comandantes de OM não adjudicadas na área do conflito conduzem a mobilização e apoio logístico sob orientação de suas Forças.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Os ODS enviam todas as necessidades diretamente ao EMCFA sem separar o que pode ser atendido pela própria Força.</t>
+          <t>Comandantes de OM não adjudicadas devem abandonar suas instalações e se integrar imediatamente à força de combate principal.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.4.1, alínea 'j'**, os ODS elaboram as LNA e as decorrentes LC.</t>
+          <t>De acordo com o **item 2.8.8**, Comandantes de OM não adjudicadas conduzem preparo, mobilização e apoio logístico.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,32 +1294,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O PAED é um plano estratégico (visão de futuro), enquanto os Planos de Mobilização buscam atender carências em curto prazo para situações emergenciais.</t>
+          <t>A Diretriz Presidencial de Emprego de Defesa (DPED) é um documento do nível político que determina a ativação de Comandos Operacionais.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>O PAED foca exclusivamente em soluções de curto prazo para emergências, enquanto a Mobilização trata da visão de futuro a longo prazo.</t>
+          <t>A Diretriz Presidencial de Emprego de Defesa (DPED) é um documento tático que determina a formação de pelotões de combate.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.5.2**, o PAED é estratégico/visão de futuro e os Planos de Mobilização buscam atender carências em curto prazo.</t>
+          <t>Conforme a **Tabela 1 (item 2.9.1)** e o **item 2.9.2**, a DPED é um documento do nível político (CS) que ativa comandos e dá orientações.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,32 +1328,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O PAED visa a busca de autonomia tecnológica e o fortalecimento da Base Industrial de Defesa (BID) do País.</t>
+          <t>O Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA) é classificado como um documento do Nível Estratégico.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>O PAED tem como objetivo principal a aquisição exclusiva de material estrangeiro, desestimulando a Base Industrial de Defesa nacional.</t>
+          <t>O Plano Estratégico de Emprego Conjunto das Forças Armadas (PEECFA) é um documento exclusivo do Nível Tático.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.5.1**, o PAED visa a autonomia tecnológica e o fortalecimento da BID.</t>
+          <t>Segundo a **Tabela 1 no item 2.9.1**, o PEECFA é listado como um documento do Nível Estratégico (MD).</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,32 +1362,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Durante a mobilização, o MD e as Forças podem acelerar a obtenção de projetos do PAED relacionados com as carências dos Planos de Mobilização.</t>
+          <t>A minuta da DPED é feita com assessoramento do GSI/PR, ouvido o Ministério da Defesa.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Durante a mobilização, todos os projetos do PAED devem ser paralisados imediatamente, proibindo-se qualquer aceleração.</t>
+          <t>A minuta da DPED é elaborada exclusivamente pelo Congresso Nacional, sem consulta ao Executivo.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nos termos do **item 2.5.3**, poderão acelerar a obtenção de projetos de maior prioridade relacionados com as carências.</t>
+          <t>De acordo com o **item 2.9.2.1**, a minuta da DPED é feita com assessoramento do GSI/PR, ouvido o MD.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1396,32 +1396,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O PAED é um plano ostensivo para apresentação à sociedade, enquanto o Plano Setorial de Mobilização Militar (PSMM) consolida planos no nível MD.</t>
+          <t>Em situação de normalidade, cabe ao MD emitir uma minuta de DPED para viabilizar o planejamento das Hipóteses de Emprego.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>O PAED é um documento ultrassecreto que nunca deve ser apresentado à sociedade, ao contrário dos Planos de Mobilização que são sempre públicos.</t>
+          <t>Em situação de normalidade, é proibida a emissão de minutas de DPED, sendo estas reservadas apenas para guerra real.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Conforme o **item 2.5.7, alínea 'b'**, o PAED é ostensivo para apresentação à sociedade.</t>
+          <t>Conforme o **item 2.9.2.2**, em situação de normalidade, cabe ao MD emitir uma minuta de DPED para o planejamento das HE.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1430,32 +1430,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O PAED tem como base a Estratégia Nacional de Defesa (END), enquanto os Planos de Mobilização têm como base o emprego das FA.</t>
+          <t>A Diretriz Ministerial de Emprego de Defesa (DMED) orienta o planejamento estratégico do MD baseada na DPED.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>O PAED e os Planos de Mobilização têm bases idênticas, fundamentando-se exclusivamente no Regimento Interno do Ministério da Defesa.</t>
+          <t>A Diretriz Ministerial de Emprego de Defesa (DMED) é o documento que declara o estado de sítio no país.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>De acordo com o **item 2.5.7, alínea 'c'**, o PAED tem como base a END e os Planos de Mobilização o emprego das FA.</t>
+          <t>Segundo o **item 2.9.3**, a DMED orienta o planejamento estratégico do MD e é elaborada com base na DPED.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1464,36 +1464,138 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cap. 2 - Disposições Gerais</t>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Necessidades não previstas no PAED poderão ser incluídas em novos projetos naquele plano.</t>
+          <t>O Ministro da Defesa emite a DMED para determinar a confecção ou atualização do PEECFA.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>O PAED é imutável, sendo proibida a inclusão de novas necessidades ou projetos não previstos originalmente.</t>
+          <t>O Ministro da Defesa emite a DMED para determinar a ordem de fogo das baterias de artilharia.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Segundo o **item 2.5.6**, necessidades não previstas poderão ser incluídas em novos projetos no PAED.</t>
+          <t>De acordo com o **item 2.9.4**, cabe ao Ministro da Defesa determinar a confecção/atualização de PEECFA emitindo uma DMED.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A Diretriz de Planejamento Estratégico Militar (DPEM) é emitida pelo CEMCFA para orientar a elaboração do PEECFA.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A Diretriz de Planejamento Estratégico Militar (DPEM) é emitida pelo Presidente da República para declarar guerra.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Conforme o **item 2.9.5**, o CEMCFA emitirá a DPEM para orientar as atividades de elaboração ou atualização do PEECFA.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A DPEM é um documento administrativo que estabelece as condições de execução e organização da equipe de planejamento.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A DPEM é um tratado internacional rígido que não pode ser alterado pelas autoridades nacionais.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Segundo o **item 2.9.5.1**, a DPEM é um documento administrativo cuja finalidade é estabelecer condições de execução e organização da equipe.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cap. II - Concepção de Preparo e Emprego Conjunto</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A DPEM não tem forma ou conteúdo rígidos, devendo adequar-se às circunstâncias para prover informações aos planejadores.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A DPEM possui formato rígido e imutável, definido em lei federal, não permitindo adaptações às circunstâncias.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 2.9.5.1**, a DPEM não tem forma ou conteúdo rígidos, devendo adequar-se às circunstâncias.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
